--- a/serra_da_estrela_cheese.xlsx
+++ b/serra_da_estrela_cheese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/costaraquel_office365_ulisboa_pt/Documents/Faculdade/6 ano/Classic QMRA/intern_dtu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="8_{026A19C0-ACA6-49AD-AF13-DD7F088AD614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{11C3B62F-375A-44D8-A364-553DCBBA7F9F}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="8_{026A19C0-ACA6-49AD-AF13-DD7F088AD614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4B00A089-36DD-4F43-896C-0C5DD808F631}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{D953F70C-7EF8-4AB4-B49F-B373F82087BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D953F70C-7EF8-4AB4-B49F-B373F82087BA}"/>
   </bookViews>
   <sheets>
     <sheet name="prevalence" sheetId="1" r:id="rId1"/>
@@ -175,9 +175,6 @@
     <t>eating_occasions_year</t>
   </si>
   <si>
-    <t>Number of people in Portugal between 2009 and 2012</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -187,13 +184,16 @@
     <t>number of eating occasions per cheese per individual</t>
   </si>
   <si>
-    <t>amount eaten per serving</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
     <t>cheese_size</t>
+  </si>
+  <si>
+    <t>Number of people in Portugal between 2012 and 2020</t>
+  </si>
+  <si>
+    <t>mean amount eaten daily</t>
   </si>
 </sst>
 </file>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F2D110-5AD7-4F9E-8B3A-649A1D362D9C}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,19 +725,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>48</v>
-      </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
         <v>43</v>
@@ -754,21 +754,21 @@
         <v>500</v>
       </c>
       <c r="D2" s="20">
-        <v>40.200000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E2" s="20">
         <f>C2/D2</f>
-        <v>12.437810945273631</v>
+        <v>11.337868480725623</v>
       </c>
       <c r="F2" s="20">
         <v>3</v>
       </c>
       <c r="G2" s="20">
-        <v>247563</v>
+        <v>219323</v>
       </c>
       <c r="H2" s="20">
         <f>E2*F2*G2</f>
-        <v>9237425.3731343262</v>
+        <v>7459965.9863945572</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -782,21 +782,21 @@
         <v>500</v>
       </c>
       <c r="D3" s="20">
-        <v>40.200000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E3" s="20">
         <f t="shared" ref="E3:E15" si="0">C3/D3</f>
-        <v>12.437810945273631</v>
+        <v>11.337868480725623</v>
       </c>
       <c r="F3" s="20">
         <v>3</v>
       </c>
       <c r="G3" s="20">
-        <v>258983</v>
+        <v>229680</v>
       </c>
       <c r="H3" s="20">
         <f t="shared" ref="H3:H15" si="1">E3*F3*G3</f>
-        <v>9663544.7761194017</v>
+        <v>7812244.897959183</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -810,21 +810,21 @@
         <v>500</v>
       </c>
       <c r="D4" s="20">
-        <v>40.200000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E4" s="20">
         <f t="shared" si="0"/>
-        <v>12.437810945273631</v>
+        <v>11.337868480725623</v>
       </c>
       <c r="F4" s="20">
         <v>3</v>
       </c>
       <c r="G4" s="20">
-        <v>517746</v>
+        <v>490889</v>
       </c>
       <c r="H4" s="20">
         <f t="shared" si="1"/>
-        <v>19318880.597014923</v>
+        <v>16696904.761904761</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -838,21 +838,21 @@
         <v>500</v>
       </c>
       <c r="D5" s="20">
-        <v>40.200000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E5" s="20">
         <f t="shared" si="0"/>
-        <v>12.437810945273631</v>
+        <v>11.337868480725623</v>
       </c>
       <c r="F5" s="20">
         <v>3</v>
       </c>
       <c r="G5" s="20">
-        <v>532406</v>
+        <v>506086</v>
       </c>
       <c r="H5" s="20">
         <f t="shared" si="1"/>
-        <v>19865895.522388056</v>
+        <v>17213809.523809522</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -866,21 +866,21 @@
         <v>500</v>
       </c>
       <c r="D6" s="20">
-        <v>40.200000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E6" s="20">
         <f t="shared" si="0"/>
-        <v>12.437810945273631</v>
+        <v>11.337868480725623</v>
       </c>
       <c r="F6" s="20">
         <v>3</v>
       </c>
       <c r="G6" s="20">
-        <v>1559786</v>
+        <v>1423694</v>
       </c>
       <c r="H6" s="20">
         <f t="shared" si="1"/>
-        <v>58200970.149253726</v>
+        <v>48424965.986394554</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -894,21 +894,21 @@
         <v>500</v>
       </c>
       <c r="D7" s="20">
-        <v>40.200000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>12.437810945273631</v>
+        <v>11.337868480725623</v>
       </c>
       <c r="F7" s="20">
         <v>3</v>
       </c>
       <c r="G7" s="20">
-        <v>1504582</v>
+        <v>1348047</v>
       </c>
       <c r="H7" s="20">
         <f t="shared" si="1"/>
-        <v>56141119.402985066</v>
+        <v>45851938.775510199</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -922,21 +922,21 @@
         <v>500</v>
       </c>
       <c r="D8" s="20">
-        <v>40.200000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
-        <v>12.437810945273631</v>
+        <v>11.337868480725623</v>
       </c>
       <c r="F8" s="20">
         <v>3</v>
       </c>
       <c r="G8" s="20">
-        <v>1451065</v>
+        <v>1514148</v>
       </c>
       <c r="H8" s="20">
         <f t="shared" si="1"/>
-        <v>54144216.417910442</v>
+        <v>51501632.653061219</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -950,21 +950,21 @@
         <v>500</v>
       </c>
       <c r="D9" s="20">
-        <v>40.200000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E9" s="20">
         <f>C9/D9</f>
-        <v>12.437810945273631</v>
+        <v>11.337868480725623</v>
       </c>
       <c r="F9" s="20">
         <v>3</v>
       </c>
       <c r="G9" s="20">
-        <v>1328899</v>
+        <v>1363804</v>
       </c>
       <c r="H9" s="20">
         <f>E9*F9*G9</f>
-        <v>49585783.582089543</v>
+        <v>46387891.15646258</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -978,21 +978,21 @@
         <v>500</v>
       </c>
       <c r="D10" s="20">
-        <v>40.200000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
-        <v>12.437810945273631</v>
+        <v>11.337868480725623</v>
       </c>
       <c r="F10" s="20">
         <v>3</v>
       </c>
       <c r="G10" s="20">
-        <v>645074</v>
+        <v>608225</v>
       </c>
       <c r="H10" s="20">
         <f t="shared" si="1"/>
-        <v>24069925.373134326</v>
+        <v>20687925.170068026</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1006,21 +1006,21 @@
         <v>500</v>
       </c>
       <c r="D11" s="20">
-        <v>40.200000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>12.437810945273631</v>
+        <v>11.337868480725623</v>
       </c>
       <c r="F11" s="20">
         <v>3</v>
       </c>
       <c r="G11" s="20">
-        <v>677818</v>
+        <v>637317</v>
       </c>
       <c r="H11" s="20">
         <f t="shared" si="1"/>
-        <v>25291716.417910445</v>
+        <v>21677448.979591835</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1034,21 +1034,21 @@
         <v>500</v>
       </c>
       <c r="D12" s="20">
-        <v>40.200000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
-        <v>12.437810945273631</v>
+        <v>11.337868480725623</v>
       </c>
       <c r="F12" s="20">
         <v>3</v>
       </c>
       <c r="G12" s="20">
-        <v>567008</v>
+        <v>604911</v>
       </c>
       <c r="H12" s="20">
         <f t="shared" si="1"/>
-        <v>21157014.925373133</v>
+        <v>20575204.081632651</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1062,21 +1062,21 @@
         <v>500</v>
       </c>
       <c r="D13" s="20">
-        <v>40.200000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
-        <v>12.437810945273631</v>
+        <v>11.337868480725623</v>
       </c>
       <c r="F13" s="20">
         <v>3</v>
       </c>
       <c r="G13" s="20">
-        <v>456169</v>
+        <v>492655</v>
       </c>
       <c r="H13" s="20">
         <f t="shared" si="1"/>
-        <v>17021231.343283579</v>
+        <v>16756972.789115645</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1090,21 +1090,21 @@
         <v>500</v>
       </c>
       <c r="D14" s="20">
-        <v>40.200000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>12.437810945273631</v>
+        <v>11.337868480725623</v>
       </c>
       <c r="F14" s="20">
         <v>3</v>
       </c>
       <c r="G14" s="20">
-        <v>577098</v>
+        <v>645543</v>
       </c>
       <c r="H14" s="20">
         <f t="shared" si="1"/>
-        <v>21533507.462686565</v>
+        <v>21957244.89795918</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1118,21 +1118,21 @@
         <v>500</v>
       </c>
       <c r="D15" s="20">
-        <v>40.200000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
-        <v>12.437810945273631</v>
+        <v>11.337868480725623</v>
       </c>
       <c r="F15" s="20">
         <v>3</v>
       </c>
       <c r="G15" s="20">
-        <v>352918</v>
+        <v>398074</v>
       </c>
       <c r="H15" s="20">
         <f t="shared" si="1"/>
-        <v>13168582.089552237</v>
+        <v>13539931.972789114</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1181,7 +1181,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="20">
         <v>44.1</v>
@@ -1535,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62968AD6-2E36-4AC2-8A8A-7E6BAD6D2708}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1571,7 +1571,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">

--- a/serra_da_estrela_cheese.xlsx
+++ b/serra_da_estrela_cheese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/costaraquel_office365_ulisboa_pt/Documents/Faculdade/6 ano/Classic QMRA/intern_dtu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="8_{026A19C0-ACA6-49AD-AF13-DD7F088AD614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4B00A089-36DD-4F43-896C-0C5DD808F631}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="8_{026A19C0-ACA6-49AD-AF13-DD7F088AD614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{97D39DFB-D2B9-4DA1-8D34-2DF45E6DE467}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D953F70C-7EF8-4AB4-B49F-B373F82087BA}"/>
   </bookViews>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F2D110-5AD7-4F9E-8B3A-649A1D362D9C}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,11 +764,11 @@
         <v>3</v>
       </c>
       <c r="G2" s="20">
-        <v>219323</v>
+        <v>176893</v>
       </c>
       <c r="H2" s="20">
         <f>E2*F2*G2</f>
-        <v>7459965.9863945572</v>
+        <v>6016768.7074829927</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -792,11 +792,11 @@
         <v>3</v>
       </c>
       <c r="G3" s="20">
-        <v>229680</v>
+        <v>185123</v>
       </c>
       <c r="H3" s="20">
         <f t="shared" ref="H3:H15" si="1">E3*F3*G3</f>
-        <v>7812244.897959183</v>
+        <v>6296700.6802721079</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
